--- a/database/industries/polymer/jam/balancesheet/quarterly.xlsx
+++ b/database/industries/polymer/jam/balancesheet/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\chemical\jam\balancesheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\VAHID\Desktop\Trade\database\industries\polymer\jam\balancesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E2990A8-355F-4697-B04A-55FD8DA8F705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8435CC8-65CC-4ABB-BB26-2F204109839D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="95">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,6 +37,27 @@
     <t>دوره مالی</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1397/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1397/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1398/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1398/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1398/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1398/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1399/03</t>
+  </si>
+  <si>
     <t>فصل دوم منتهی به 1399/06</t>
   </si>
   <si>
@@ -67,9 +88,39 @@
     <t>فصل سوم منتهی به 1401/09</t>
   </si>
   <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1402/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1402/06</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
+    <t>1397-10-30</t>
+  </si>
+  <si>
+    <t>1399-04-04 (10)</t>
+  </si>
+  <si>
+    <t>1398-04-30</t>
+  </si>
+  <si>
+    <t>1398-09-20 (3)</t>
+  </si>
+  <si>
+    <t>1398-10-30</t>
+  </si>
+  <si>
+    <t>1400-04-09 (9)</t>
+  </si>
+  <si>
+    <t>1399-04-30</t>
+  </si>
+  <si>
     <t>1399-10-14 (3)</t>
   </si>
   <si>
@@ -88,7 +139,7 @@
     <t>1400-10-29</t>
   </si>
   <si>
-    <t>1401-10-28 (7)</t>
+    <t>1402-04-12 (9)</t>
   </si>
   <si>
     <t>1401-04-29</t>
@@ -98,6 +149,15 @@
   </si>
   <si>
     <t>1401-10-28</t>
+  </si>
+  <si>
+    <t>1402-07-30 (4)</t>
+  </si>
+  <si>
+    <t>1402-04-28</t>
+  </si>
+  <si>
+    <t>1402-07-30</t>
   </si>
   <si>
     <t>دارایی</t>
@@ -728,7 +788,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M59"/>
+  <dimension ref="B1:W59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -736,14 +796,20 @@
   <cols>
     <col min="2" max="2" width="67" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="31" customWidth="1"/>
-    <col min="7" max="9" width="29" customWidth="1"/>
-    <col min="10" max="10" width="31" customWidth="1"/>
-    <col min="11" max="13" width="29" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="8" width="29" customWidth="1"/>
+    <col min="9" max="9" width="31" customWidth="1"/>
+    <col min="10" max="12" width="29" customWidth="1"/>
+    <col min="13" max="13" width="31" customWidth="1"/>
+    <col min="14" max="16" width="29" customWidth="1"/>
+    <col min="17" max="17" width="31" customWidth="1"/>
+    <col min="18" max="20" width="29" customWidth="1"/>
+    <col min="21" max="21" width="31" customWidth="1"/>
+    <col min="22" max="23" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -756,8 +822,18 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+    </row>
+    <row r="2" spans="2:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -772,8 +848,18 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -788,8 +874,18 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -802,8 +898,18 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+    </row>
+    <row r="5" spans="2:23" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -818,8 +924,18 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+    </row>
+    <row r="6" spans="2:23" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -834,8 +950,18 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -848,8 +974,18 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+    </row>
+    <row r="8" spans="2:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -884,44 +1020,104 @@
       <c r="M8" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="V8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="W8" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="S9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="U9" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="V9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="W9" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -934,10 +1130,20 @@
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -950,194 +1156,354 @@
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
+        <v>4863941</v>
+      </c>
+      <c r="E12" s="15">
+        <v>4193614</v>
+      </c>
+      <c r="F12" s="15">
+        <v>8724437</v>
+      </c>
+      <c r="G12" s="15">
+        <v>10614853</v>
+      </c>
+      <c r="H12" s="15">
+        <v>9290046</v>
+      </c>
+      <c r="I12" s="15">
+        <v>6521168</v>
+      </c>
+      <c r="J12" s="15">
+        <v>19142117</v>
+      </c>
+      <c r="K12" s="15">
         <v>25937645</v>
       </c>
-      <c r="E12" s="15">
+      <c r="L12" s="15">
         <v>39259226</v>
       </c>
-      <c r="F12" s="15">
+      <c r="M12" s="15">
         <v>34566809</v>
       </c>
-      <c r="G12" s="15">
+      <c r="N12" s="15">
         <v>52921771</v>
       </c>
-      <c r="H12" s="15">
+      <c r="O12" s="15">
         <v>43412996</v>
       </c>
-      <c r="I12" s="15">
+      <c r="P12" s="15">
         <v>42272490</v>
       </c>
-      <c r="J12" s="15">
+      <c r="Q12" s="15">
         <v>47235557</v>
       </c>
-      <c r="K12" s="15">
+      <c r="R12" s="15">
         <v>57666465</v>
       </c>
-      <c r="L12" s="15">
+      <c r="S12" s="15">
         <v>49269900</v>
       </c>
-      <c r="M12" s="15">
+      <c r="T12" s="15">
         <v>45198760</v>
       </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U12" s="15">
+        <v>26473220</v>
+      </c>
+      <c r="V12" s="15">
+        <v>17524711</v>
+      </c>
+      <c r="W12" s="15">
+        <v>38110762</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11">
+        <v>0</v>
+      </c>
+      <c r="E13" s="11">
+        <v>0</v>
+      </c>
+      <c r="F13" s="11">
+        <v>0</v>
+      </c>
+      <c r="G13" s="11">
         <v>365802</v>
       </c>
-      <c r="E13" s="11">
+      <c r="H13" s="11">
+        <v>365802</v>
+      </c>
+      <c r="I13" s="11">
+        <v>365802</v>
+      </c>
+      <c r="J13" s="11">
+        <v>365802</v>
+      </c>
+      <c r="K13" s="11">
+        <v>365802</v>
+      </c>
+      <c r="L13" s="11">
         <v>3871005</v>
       </c>
-      <c r="F13" s="11">
+      <c r="M13" s="11">
         <v>10343351</v>
       </c>
-      <c r="G13" s="11">
+      <c r="N13" s="11">
         <v>12343351</v>
       </c>
-      <c r="H13" s="11">
+      <c r="O13" s="11">
         <v>28500867</v>
       </c>
-      <c r="I13" s="11">
+      <c r="P13" s="11">
         <v>33331845</v>
       </c>
-      <c r="J13" s="11">
+      <c r="Q13" s="11">
         <v>25732129</v>
       </c>
-      <c r="K13" s="11">
+      <c r="R13" s="11">
         <v>32434594</v>
       </c>
-      <c r="L13" s="11">
+      <c r="S13" s="11">
         <v>38995170</v>
       </c>
-      <c r="M13" s="11">
+      <c r="T13" s="11">
         <v>14563646</v>
       </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U13" s="11">
+        <v>12446689</v>
+      </c>
+      <c r="V13" s="11">
+        <v>30556552</v>
+      </c>
+      <c r="W13" s="11">
+        <v>27676552</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15">
+        <v>25434197</v>
+      </c>
+      <c r="E14" s="15">
+        <v>31184382</v>
+      </c>
+      <c r="F14" s="15">
+        <v>38470984</v>
+      </c>
+      <c r="G14" s="15">
+        <v>38811723</v>
+      </c>
+      <c r="H14" s="15">
+        <v>39572480</v>
+      </c>
+      <c r="I14" s="15">
+        <v>42828920</v>
+      </c>
+      <c r="J14" s="15">
+        <v>44305045</v>
+      </c>
+      <c r="K14" s="15">
         <v>59970170</v>
       </c>
-      <c r="E14" s="15">
+      <c r="L14" s="15">
         <v>49443076</v>
       </c>
-      <c r="F14" s="15">
+      <c r="M14" s="15">
         <v>84551006</v>
       </c>
-      <c r="G14" s="15">
+      <c r="N14" s="15">
         <v>94396112</v>
       </c>
-      <c r="H14" s="15">
+      <c r="O14" s="15">
         <v>71499219</v>
       </c>
-      <c r="I14" s="15">
+      <c r="P14" s="15">
         <v>77554251</v>
       </c>
-      <c r="J14" s="15">
+      <c r="Q14" s="15">
         <v>106049518</v>
       </c>
-      <c r="K14" s="15">
+      <c r="R14" s="15">
         <v>104199914</v>
       </c>
-      <c r="L14" s="15">
+      <c r="S14" s="15">
         <v>93902238</v>
       </c>
-      <c r="M14" s="15">
+      <c r="T14" s="15">
         <v>83231052</v>
       </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U14" s="15">
+        <v>122090285</v>
+      </c>
+      <c r="V14" s="15">
+        <v>136677584</v>
+      </c>
+      <c r="W14" s="15">
+        <v>104153580</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11">
+        <v>7017547</v>
+      </c>
+      <c r="E15" s="11">
+        <v>7009276</v>
+      </c>
+      <c r="F15" s="11">
+        <v>8381255</v>
+      </c>
+      <c r="G15" s="11">
+        <v>9919918</v>
+      </c>
+      <c r="H15" s="11">
+        <v>10023092</v>
+      </c>
+      <c r="I15" s="11">
+        <v>12873971</v>
+      </c>
+      <c r="J15" s="11">
+        <v>10675582</v>
+      </c>
+      <c r="K15" s="11">
         <v>15469029</v>
       </c>
-      <c r="E15" s="11">
+      <c r="L15" s="11">
         <v>18018739</v>
       </c>
-      <c r="F15" s="11">
+      <c r="M15" s="11">
         <v>18678753</v>
       </c>
-      <c r="G15" s="11">
+      <c r="N15" s="11">
         <v>20975525</v>
       </c>
-      <c r="H15" s="11">
+      <c r="O15" s="11">
         <v>22768519</v>
       </c>
-      <c r="I15" s="11">
+      <c r="P15" s="11">
         <v>30012615</v>
       </c>
-      <c r="J15" s="11">
+      <c r="Q15" s="11">
         <v>29042680</v>
       </c>
-      <c r="K15" s="11">
+      <c r="R15" s="11">
         <v>37500399</v>
       </c>
-      <c r="L15" s="11">
+      <c r="S15" s="11">
         <v>41380296</v>
       </c>
-      <c r="M15" s="11">
+      <c r="T15" s="11">
         <v>35310098</v>
       </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U15" s="11">
+        <v>37613634</v>
+      </c>
+      <c r="V15" s="11">
+        <v>38787420</v>
+      </c>
+      <c r="W15" s="11">
+        <v>39651401</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15">
+        <v>3562111</v>
+      </c>
+      <c r="E16" s="15">
+        <v>3916934</v>
+      </c>
+      <c r="F16" s="15">
+        <v>4126462</v>
+      </c>
+      <c r="G16" s="15">
+        <v>2718728</v>
+      </c>
+      <c r="H16" s="15">
+        <v>3522704</v>
+      </c>
+      <c r="I16" s="15">
+        <v>3177590</v>
+      </c>
+      <c r="J16" s="15">
+        <v>3480911</v>
+      </c>
+      <c r="K16" s="15">
         <v>1296267</v>
       </c>
-      <c r="E16" s="15">
+      <c r="L16" s="15">
         <v>3101025</v>
       </c>
-      <c r="F16" s="15">
+      <c r="M16" s="15">
         <v>3387509</v>
       </c>
-      <c r="G16" s="15">
+      <c r="N16" s="15">
         <v>5340271</v>
       </c>
-      <c r="H16" s="15">
+      <c r="O16" s="15">
         <v>4650171</v>
       </c>
-      <c r="I16" s="15">
+      <c r="P16" s="15">
         <v>6151091</v>
       </c>
-      <c r="J16" s="15">
+      <c r="Q16" s="15">
         <v>5387392</v>
       </c>
-      <c r="K16" s="15">
+      <c r="R16" s="15">
         <v>7412571</v>
       </c>
-      <c r="L16" s="15">
+      <c r="S16" s="15">
         <v>8456133</v>
       </c>
-      <c r="M16" s="15">
+      <c r="T16" s="15">
         <v>9196846</v>
       </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U16" s="15">
+        <v>8950757</v>
+      </c>
+      <c r="V16" s="15">
+        <v>11464074</v>
+      </c>
+      <c r="W16" s="15">
+        <v>7796374</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11">
-        <v>244996</v>
+        <v>244997</v>
       </c>
       <c r="E17" s="11">
         <v>244996</v>
@@ -1166,118 +1532,238 @@
       <c r="M17" s="11">
         <v>244996</v>
       </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N17" s="11">
+        <v>244996</v>
+      </c>
+      <c r="O17" s="11">
+        <v>244996</v>
+      </c>
+      <c r="P17" s="11">
+        <v>244996</v>
+      </c>
+      <c r="Q17" s="11">
+        <v>244996</v>
+      </c>
+      <c r="R17" s="11">
+        <v>244996</v>
+      </c>
+      <c r="S17" s="11">
+        <v>244996</v>
+      </c>
+      <c r="T17" s="11">
+        <v>244996</v>
+      </c>
+      <c r="U17" s="11">
+        <v>244996</v>
+      </c>
+      <c r="V17" s="11">
+        <v>244996</v>
+      </c>
+      <c r="W17" s="11">
+        <v>244996</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B18" s="16" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17">
+        <v>41122793</v>
+      </c>
+      <c r="E18" s="17">
+        <v>46549202</v>
+      </c>
+      <c r="F18" s="17">
+        <v>59948134</v>
+      </c>
+      <c r="G18" s="17">
+        <v>62676020</v>
+      </c>
+      <c r="H18" s="17">
+        <v>63019120</v>
+      </c>
+      <c r="I18" s="17">
+        <v>66012447</v>
+      </c>
+      <c r="J18" s="17">
+        <v>78214453</v>
+      </c>
+      <c r="K18" s="17">
         <v>103283909</v>
       </c>
-      <c r="E18" s="17">
+      <c r="L18" s="17">
         <v>113938067</v>
       </c>
-      <c r="F18" s="17">
+      <c r="M18" s="17">
         <v>151772424</v>
       </c>
-      <c r="G18" s="17">
+      <c r="N18" s="17">
         <v>186222026</v>
       </c>
-      <c r="H18" s="17">
+      <c r="O18" s="17">
         <v>171076768</v>
       </c>
-      <c r="I18" s="17">
+      <c r="P18" s="17">
         <v>189567288</v>
       </c>
-      <c r="J18" s="17">
+      <c r="Q18" s="17">
         <v>213692272</v>
       </c>
-      <c r="K18" s="17">
+      <c r="R18" s="17">
         <v>239458939</v>
       </c>
-      <c r="L18" s="17">
+      <c r="S18" s="17">
         <v>232248733</v>
       </c>
-      <c r="M18" s="17">
+      <c r="T18" s="17">
         <v>187745398</v>
       </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U18" s="17">
+        <v>207819581</v>
+      </c>
+      <c r="V18" s="17">
+        <v>235255337</v>
+      </c>
+      <c r="W18" s="17">
+        <v>217633665</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11">
+        <v>6490241</v>
+      </c>
+      <c r="E19" s="11">
+        <v>5995645</v>
+      </c>
+      <c r="F19" s="11">
+        <v>6169853</v>
+      </c>
+      <c r="G19" s="11">
+        <v>6606023</v>
+      </c>
+      <c r="H19" s="11">
+        <v>8812788</v>
+      </c>
+      <c r="I19" s="11">
+        <v>10674153</v>
+      </c>
+      <c r="J19" s="11">
+        <v>11053725</v>
+      </c>
+      <c r="K19" s="11">
         <v>13573649</v>
       </c>
-      <c r="E19" s="11">
+      <c r="L19" s="11">
         <v>15134295</v>
       </c>
-      <c r="F19" s="11">
+      <c r="M19" s="11">
         <v>17752375</v>
       </c>
-      <c r="G19" s="11">
+      <c r="N19" s="11">
         <v>16371746</v>
       </c>
-      <c r="H19" s="11">
+      <c r="O19" s="11">
         <v>18263013</v>
       </c>
-      <c r="I19" s="11">
+      <c r="P19" s="11">
         <v>19571608</v>
       </c>
-      <c r="J19" s="11">
+      <c r="Q19" s="11">
         <v>16117016</v>
       </c>
-      <c r="K19" s="11">
+      <c r="R19" s="11">
         <v>15858531</v>
       </c>
-      <c r="L19" s="11">
+      <c r="S19" s="11">
         <v>20128818</v>
       </c>
-      <c r="M19" s="11">
+      <c r="T19" s="11">
         <v>18928612</v>
       </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U19" s="11">
+        <v>26665786</v>
+      </c>
+      <c r="V19" s="11">
+        <v>30107545</v>
+      </c>
+      <c r="W19" s="11">
+        <v>39830971</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15">
-        <v>13238723</v>
+        <v>12421650</v>
       </c>
       <c r="E20" s="15">
-        <v>13238723</v>
+        <v>12987114</v>
       </c>
       <c r="F20" s="15">
-        <v>13238723</v>
+        <v>12889114</v>
       </c>
       <c r="G20" s="15">
-        <v>13238723</v>
+        <v>12972795</v>
       </c>
       <c r="H20" s="15">
-        <v>13238723</v>
+        <v>12972795</v>
       </c>
       <c r="I20" s="15">
         <v>13238723</v>
       </c>
       <c r="J20" s="15">
+        <v>13238723</v>
+      </c>
+      <c r="K20" s="15">
+        <v>13238723</v>
+      </c>
+      <c r="L20" s="15">
+        <v>13238723</v>
+      </c>
+      <c r="M20" s="15">
+        <v>13238723</v>
+      </c>
+      <c r="N20" s="15">
+        <v>13238723</v>
+      </c>
+      <c r="O20" s="15">
+        <v>13238723</v>
+      </c>
+      <c r="P20" s="15">
+        <v>13238723</v>
+      </c>
+      <c r="Q20" s="15">
         <v>21238723</v>
       </c>
-      <c r="K20" s="15">
+      <c r="R20" s="15">
         <v>21238723</v>
       </c>
-      <c r="L20" s="15">
+      <c r="S20" s="15">
         <v>21238718</v>
       </c>
-      <c r="M20" s="15">
+      <c r="T20" s="15">
         <v>21238718</v>
       </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U20" s="15">
+        <v>21558452</v>
+      </c>
+      <c r="V20" s="15">
+        <v>22259452</v>
+      </c>
+      <c r="W20" s="15">
+        <v>21558452</v>
+      </c>
+    </row>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11">
@@ -1310,226 +1796,436 @@
       <c r="M21" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N21" s="11">
+        <v>0</v>
+      </c>
+      <c r="O21" s="11">
+        <v>0</v>
+      </c>
+      <c r="P21" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="11">
+        <v>0</v>
+      </c>
+      <c r="R21" s="11">
+        <v>0</v>
+      </c>
+      <c r="S21" s="11">
+        <v>0</v>
+      </c>
+      <c r="T21" s="11">
+        <v>0</v>
+      </c>
+      <c r="U21" s="11">
+        <v>0</v>
+      </c>
+      <c r="V21" s="11">
+        <v>0</v>
+      </c>
+      <c r="W21" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15">
+        <v>11312931</v>
+      </c>
+      <c r="E22" s="15">
+        <v>11099721</v>
+      </c>
+      <c r="F22" s="15">
+        <v>10855761</v>
+      </c>
+      <c r="G22" s="15">
+        <v>10615868</v>
+      </c>
+      <c r="H22" s="15">
+        <v>10318775</v>
+      </c>
+      <c r="I22" s="15">
+        <v>9998753</v>
+      </c>
+      <c r="J22" s="15">
+        <v>9652523</v>
+      </c>
+      <c r="K22" s="15">
         <v>9426845</v>
       </c>
-      <c r="E22" s="15">
+      <c r="L22" s="15">
         <v>9128966</v>
       </c>
-      <c r="F22" s="15">
+      <c r="M22" s="15">
         <v>7990062</v>
       </c>
-      <c r="G22" s="15">
+      <c r="N22" s="15">
         <v>7620261</v>
       </c>
-      <c r="H22" s="15">
+      <c r="O22" s="15">
         <v>7482466</v>
       </c>
-      <c r="I22" s="15">
+      <c r="P22" s="15">
         <v>7228910</v>
       </c>
-      <c r="J22" s="15">
+      <c r="Q22" s="15">
         <v>7462949</v>
       </c>
-      <c r="K22" s="15">
+      <c r="R22" s="15">
         <v>7155240</v>
       </c>
-      <c r="L22" s="15">
+      <c r="S22" s="15">
         <v>7483288</v>
       </c>
-      <c r="M22" s="15">
+      <c r="T22" s="15">
         <v>6943551</v>
       </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U22" s="15">
+        <v>7790620</v>
+      </c>
+      <c r="V22" s="15">
+        <v>7641308</v>
+      </c>
+      <c r="W22" s="15">
+        <v>7549905</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11">
+        <v>23593</v>
+      </c>
+      <c r="E23" s="11">
+        <v>22793</v>
+      </c>
+      <c r="F23" s="11">
+        <v>22497</v>
+      </c>
+      <c r="G23" s="11">
+        <v>20965</v>
+      </c>
+      <c r="H23" s="11">
+        <v>19946</v>
+      </c>
+      <c r="I23" s="11">
+        <v>19367</v>
+      </c>
+      <c r="J23" s="11">
+        <v>18284</v>
+      </c>
+      <c r="K23" s="11">
         <v>17284</v>
       </c>
-      <c r="E23" s="11">
+      <c r="L23" s="11">
         <v>17916</v>
       </c>
-      <c r="F23" s="11">
+      <c r="M23" s="11">
         <v>17101</v>
       </c>
-      <c r="G23" s="11">
+      <c r="N23" s="11">
         <v>16053</v>
       </c>
-      <c r="H23" s="11">
+      <c r="O23" s="11">
         <v>15316</v>
       </c>
-      <c r="I23" s="11">
+      <c r="P23" s="11">
         <v>14529</v>
       </c>
-      <c r="J23" s="11">
+      <c r="Q23" s="11">
         <v>14740</v>
       </c>
-      <c r="K23" s="11">
+      <c r="R23" s="11">
         <v>14000</v>
       </c>
-      <c r="L23" s="11">
+      <c r="S23" s="11">
         <v>13284</v>
       </c>
-      <c r="M23" s="11">
+      <c r="T23" s="11">
         <v>16170</v>
       </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U23" s="11">
+        <v>16901</v>
+      </c>
+      <c r="V23" s="11">
+        <v>15786</v>
+      </c>
+      <c r="W23" s="11">
+        <v>14673</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="J24" s="15" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K24" s="15" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="L24" s="15" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="M24" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="N24" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="O24" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P24" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q24" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="R24" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S24" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="T24" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="U24" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="V24" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="W24" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11">
+        <v>0</v>
+      </c>
+      <c r="E25" s="11">
+        <v>1377075</v>
+      </c>
+      <c r="F25" s="11">
+        <v>1477075</v>
+      </c>
+      <c r="G25" s="11">
+        <v>1632911</v>
+      </c>
+      <c r="H25" s="11">
+        <v>1753508</v>
+      </c>
+      <c r="I25" s="11">
+        <v>1987036</v>
+      </c>
+      <c r="J25" s="11">
+        <v>1812648</v>
+      </c>
+      <c r="K25" s="11">
         <v>2693638</v>
       </c>
-      <c r="E25" s="11">
+      <c r="L25" s="11">
         <v>135592</v>
       </c>
-      <c r="F25" s="11">
+      <c r="M25" s="11">
         <v>16164</v>
       </c>
-      <c r="G25" s="11">
+      <c r="N25" s="11">
         <v>35609</v>
       </c>
-      <c r="H25" s="11">
+      <c r="O25" s="11">
         <v>23768</v>
       </c>
-      <c r="I25" s="11">
+      <c r="P25" s="11">
         <v>69350</v>
       </c>
-      <c r="J25" s="11">
+      <c r="Q25" s="11">
         <v>384721</v>
       </c>
-      <c r="K25" s="11">
+      <c r="R25" s="11">
         <v>348487</v>
       </c>
-      <c r="L25" s="11">
+      <c r="S25" s="11">
         <v>742572</v>
       </c>
-      <c r="M25" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="T25" s="11">
+        <v>0</v>
+      </c>
+      <c r="U25" s="11">
+        <v>724013</v>
+      </c>
+      <c r="V25" s="11">
+        <v>778741</v>
+      </c>
+      <c r="W25" s="11">
+        <v>894129</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17">
+        <v>30248415</v>
+      </c>
+      <c r="E26" s="17">
+        <v>31482348</v>
+      </c>
+      <c r="F26" s="17">
+        <v>31414300</v>
+      </c>
+      <c r="G26" s="17">
+        <v>31848562</v>
+      </c>
+      <c r="H26" s="17">
+        <v>33877812</v>
+      </c>
+      <c r="I26" s="17">
+        <v>35918032</v>
+      </c>
+      <c r="J26" s="17">
+        <v>35775903</v>
+      </c>
+      <c r="K26" s="17">
         <v>38950139</v>
       </c>
-      <c r="E26" s="17">
+      <c r="L26" s="17">
         <v>37655492</v>
       </c>
-      <c r="F26" s="17">
+      <c r="M26" s="17">
         <v>39014425</v>
       </c>
-      <c r="G26" s="17">
+      <c r="N26" s="17">
         <v>37282392</v>
       </c>
-      <c r="H26" s="17">
+      <c r="O26" s="17">
         <v>39023286</v>
       </c>
-      <c r="I26" s="17">
+      <c r="P26" s="17">
         <v>40123120</v>
       </c>
-      <c r="J26" s="17">
+      <c r="Q26" s="17">
         <v>45218149</v>
       </c>
-      <c r="K26" s="17">
+      <c r="R26" s="17">
         <v>44614981</v>
       </c>
-      <c r="L26" s="17">
+      <c r="S26" s="17">
         <v>49606680</v>
       </c>
-      <c r="M26" s="17">
+      <c r="T26" s="17">
         <v>47127051</v>
       </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U26" s="17">
+        <v>56755772</v>
+      </c>
+      <c r="V26" s="17">
+        <v>60802832</v>
+      </c>
+      <c r="W26" s="17">
+        <v>69848130</v>
+      </c>
+    </row>
+    <row r="27" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B27" s="18" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19">
+        <v>71371208</v>
+      </c>
+      <c r="E27" s="19">
+        <v>78031550</v>
+      </c>
+      <c r="F27" s="19">
+        <v>91362434</v>
+      </c>
+      <c r="G27" s="19">
+        <v>94524582</v>
+      </c>
+      <c r="H27" s="19">
+        <v>96896932</v>
+      </c>
+      <c r="I27" s="19">
+        <v>101930479</v>
+      </c>
+      <c r="J27" s="19">
+        <v>113990356</v>
+      </c>
+      <c r="K27" s="19">
         <v>142234048</v>
       </c>
-      <c r="E27" s="19">
+      <c r="L27" s="19">
         <v>151593559</v>
       </c>
-      <c r="F27" s="19">
+      <c r="M27" s="19">
         <v>190786849</v>
       </c>
-      <c r="G27" s="19">
+      <c r="N27" s="19">
         <v>223504418</v>
       </c>
-      <c r="H27" s="19">
+      <c r="O27" s="19">
         <v>210100054</v>
       </c>
-      <c r="I27" s="19">
+      <c r="P27" s="19">
         <v>229690408</v>
       </c>
-      <c r="J27" s="19">
+      <c r="Q27" s="19">
         <v>258910421</v>
       </c>
-      <c r="K27" s="19">
+      <c r="R27" s="19">
         <v>284073920</v>
       </c>
-      <c r="L27" s="19">
+      <c r="S27" s="19">
         <v>281855413</v>
       </c>
-      <c r="M27" s="19">
+      <c r="T27" s="19">
         <v>234872449</v>
       </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U27" s="19">
+        <v>264575353</v>
+      </c>
+      <c r="V27" s="19">
+        <v>296058169</v>
+      </c>
+      <c r="W27" s="19">
+        <v>287481795</v>
+      </c>
+    </row>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
@@ -1542,118 +2238,218 @@
       <c r="K28" s="13"/>
       <c r="L28" s="13"/>
       <c r="M28" s="13"/>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="13"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="13"/>
+      <c r="V28" s="13"/>
+      <c r="W28" s="13"/>
+    </row>
+    <row r="29" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B29" s="14" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15">
+        <v>18282836</v>
+      </c>
+      <c r="E29" s="15">
+        <v>19231594</v>
+      </c>
+      <c r="F29" s="15">
+        <v>26876272</v>
+      </c>
+      <c r="G29" s="15">
+        <v>31142624</v>
+      </c>
+      <c r="H29" s="15">
+        <v>34384832</v>
+      </c>
+      <c r="I29" s="15">
+        <v>30123230</v>
+      </c>
+      <c r="J29" s="15">
+        <v>33047954</v>
+      </c>
+      <c r="K29" s="15">
         <v>39770679</v>
       </c>
-      <c r="E29" s="15">
+      <c r="L29" s="15">
         <v>45722650</v>
       </c>
-      <c r="F29" s="15">
+      <c r="M29" s="15">
         <v>42589866</v>
       </c>
-      <c r="G29" s="15">
+      <c r="N29" s="15">
         <v>51789250</v>
       </c>
-      <c r="H29" s="15">
+      <c r="O29" s="15">
         <v>43862908</v>
       </c>
-      <c r="I29" s="15">
+      <c r="P29" s="15">
         <v>72495141</v>
       </c>
-      <c r="J29" s="15">
+      <c r="Q29" s="15">
         <v>97437076</v>
       </c>
-      <c r="K29" s="15">
+      <c r="R29" s="15">
         <v>105475419</v>
       </c>
-      <c r="L29" s="15">
+      <c r="S29" s="15">
         <v>97631651</v>
       </c>
-      <c r="M29" s="15">
+      <c r="T29" s="15">
         <v>82620562</v>
       </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U29" s="15">
+        <v>115919049</v>
+      </c>
+      <c r="V29" s="15">
+        <v>123996010</v>
+      </c>
+      <c r="W29" s="15">
+        <v>140737745</v>
+      </c>
+    </row>
+    <row r="30" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K30" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="L30" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="M30" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="N30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="O30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="R30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="S30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="T30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="U30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="V30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="W30" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15">
+        <v>2020152</v>
+      </c>
+      <c r="E31" s="15">
+        <v>3406166</v>
+      </c>
+      <c r="F31" s="15">
+        <v>3659183</v>
+      </c>
+      <c r="G31" s="15">
+        <v>1269174</v>
+      </c>
+      <c r="H31" s="15">
+        <v>1368400</v>
+      </c>
+      <c r="I31" s="15">
+        <v>1524689</v>
+      </c>
+      <c r="J31" s="15">
+        <v>788838</v>
+      </c>
+      <c r="K31" s="15">
         <v>2246344</v>
       </c>
-      <c r="E31" s="15">
+      <c r="L31" s="15">
         <v>2820907</v>
       </c>
-      <c r="F31" s="15">
+      <c r="M31" s="15">
         <v>5501968</v>
       </c>
-      <c r="G31" s="15">
+      <c r="N31" s="15">
         <v>7552727</v>
       </c>
-      <c r="H31" s="15">
+      <c r="O31" s="15">
         <v>3683420</v>
       </c>
-      <c r="I31" s="15">
+      <c r="P31" s="15">
         <v>2166968</v>
       </c>
-      <c r="J31" s="15">
+      <c r="Q31" s="15">
         <v>11262827</v>
       </c>
-      <c r="K31" s="15">
+      <c r="R31" s="15">
         <v>4098550</v>
       </c>
-      <c r="L31" s="15">
+      <c r="S31" s="15">
         <v>3278071</v>
       </c>
-      <c r="M31" s="15">
+      <c r="T31" s="15">
         <v>12943314</v>
       </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U31" s="15">
+        <v>8217602</v>
+      </c>
+      <c r="V31" s="15">
+        <v>6081657</v>
+      </c>
+      <c r="W31" s="15">
+        <v>5512436</v>
+      </c>
+    </row>
+    <row r="32" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11">
@@ -1686,82 +2482,172 @@
       <c r="M32" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N32" s="11">
+        <v>0</v>
+      </c>
+      <c r="O32" s="11">
+        <v>0</v>
+      </c>
+      <c r="P32" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="11">
+        <v>0</v>
+      </c>
+      <c r="R32" s="11">
+        <v>0</v>
+      </c>
+      <c r="S32" s="11">
+        <v>0</v>
+      </c>
+      <c r="T32" s="11">
+        <v>0</v>
+      </c>
+      <c r="U32" s="11">
+        <v>0</v>
+      </c>
+      <c r="V32" s="11">
+        <v>0</v>
+      </c>
+      <c r="W32" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B33" s="14" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15">
+        <v>7168157</v>
+      </c>
+      <c r="E33" s="15">
+        <v>2606570</v>
+      </c>
+      <c r="F33" s="15">
+        <v>62493</v>
+      </c>
+      <c r="G33" s="15">
+        <v>16070769</v>
+      </c>
+      <c r="H33" s="15">
+        <v>12094659</v>
+      </c>
+      <c r="I33" s="15">
+        <v>1411371</v>
+      </c>
+      <c r="J33" s="15">
+        <v>838099</v>
+      </c>
+      <c r="K33" s="15">
         <v>33915493</v>
       </c>
-      <c r="E33" s="15">
+      <c r="L33" s="15">
         <v>15543452</v>
       </c>
-      <c r="F33" s="15">
+      <c r="M33" s="15">
         <v>975268</v>
       </c>
-      <c r="G33" s="15">
+      <c r="N33" s="15">
         <v>960332</v>
       </c>
-      <c r="H33" s="15">
+      <c r="O33" s="15">
         <v>64741589</v>
       </c>
-      <c r="I33" s="15">
+      <c r="P33" s="15">
         <v>39838541</v>
       </c>
-      <c r="J33" s="15">
+      <c r="Q33" s="15">
         <v>715825</v>
       </c>
-      <c r="K33" s="15">
+      <c r="R33" s="15">
         <v>511547</v>
       </c>
-      <c r="L33" s="15">
+      <c r="S33" s="15">
         <v>496240</v>
       </c>
-      <c r="M33" s="15">
+      <c r="T33" s="15">
         <v>49179645</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U33" s="15">
+        <v>549508</v>
+      </c>
+      <c r="V33" s="15">
+        <v>532632</v>
+      </c>
+      <c r="W33" s="15">
+        <v>57848561</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11">
+        <v>976726</v>
+      </c>
+      <c r="E34" s="11">
+        <v>2431835</v>
+      </c>
+      <c r="F34" s="11">
+        <v>1682751</v>
+      </c>
+      <c r="G34" s="11">
+        <v>857397</v>
+      </c>
+      <c r="H34" s="11">
+        <v>367665</v>
+      </c>
+      <c r="I34" s="11">
+        <v>4982964</v>
+      </c>
+      <c r="J34" s="11">
+        <v>5553790</v>
+      </c>
+      <c r="K34" s="11">
         <v>4059333</v>
       </c>
-      <c r="E34" s="11">
+      <c r="L34" s="11">
         <v>1313059</v>
       </c>
-      <c r="F34" s="11">
-        <v>0</v>
-      </c>
-      <c r="G34" s="11">
-        <v>0</v>
-      </c>
-      <c r="H34" s="11">
-        <v>0</v>
-      </c>
-      <c r="I34" s="11">
-        <v>0</v>
-      </c>
-      <c r="J34" s="11">
+      <c r="M34" s="11">
+        <v>0</v>
+      </c>
+      <c r="N34" s="11">
+        <v>0</v>
+      </c>
+      <c r="O34" s="11">
+        <v>0</v>
+      </c>
+      <c r="P34" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="11">
         <v>4997424</v>
       </c>
-      <c r="K34" s="11">
+      <c r="R34" s="11">
         <v>4997424</v>
       </c>
-      <c r="L34" s="11">
-        <v>0</v>
-      </c>
-      <c r="M34" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="S34" s="11">
+        <v>0</v>
+      </c>
+      <c r="T34" s="11">
+        <v>0</v>
+      </c>
+      <c r="U34" s="11">
+        <v>0</v>
+      </c>
+      <c r="V34" s="11">
+        <v>0</v>
+      </c>
+      <c r="W34" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15">
@@ -1794,10 +2680,40 @@
       <c r="M35" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N35" s="15">
+        <v>0</v>
+      </c>
+      <c r="O35" s="15">
+        <v>0</v>
+      </c>
+      <c r="P35" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="15">
+        <v>0</v>
+      </c>
+      <c r="R35" s="15">
+        <v>0</v>
+      </c>
+      <c r="S35" s="15">
+        <v>0</v>
+      </c>
+      <c r="T35" s="15">
+        <v>0</v>
+      </c>
+      <c r="U35" s="15">
+        <v>0</v>
+      </c>
+      <c r="V35" s="15">
+        <v>0</v>
+      </c>
+      <c r="W35" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11">
@@ -1830,46 +2746,106 @@
       <c r="M36" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N36" s="11">
+        <v>0</v>
+      </c>
+      <c r="O36" s="11">
+        <v>0</v>
+      </c>
+      <c r="P36" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="11">
+        <v>0</v>
+      </c>
+      <c r="R36" s="11">
+        <v>0</v>
+      </c>
+      <c r="S36" s="11">
+        <v>0</v>
+      </c>
+      <c r="T36" s="11">
+        <v>0</v>
+      </c>
+      <c r="U36" s="11">
+        <v>0</v>
+      </c>
+      <c r="V36" s="11">
+        <v>0</v>
+      </c>
+      <c r="W36" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B37" s="16" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="17">
+        <v>28447871</v>
+      </c>
+      <c r="E37" s="17">
+        <v>27676165</v>
+      </c>
+      <c r="F37" s="17">
+        <v>32280699</v>
+      </c>
+      <c r="G37" s="17">
+        <v>49339964</v>
+      </c>
+      <c r="H37" s="17">
+        <v>48215556</v>
+      </c>
+      <c r="I37" s="17">
+        <v>38042254</v>
+      </c>
+      <c r="J37" s="17">
+        <v>40228681</v>
+      </c>
+      <c r="K37" s="17">
         <v>79991849</v>
       </c>
-      <c r="E37" s="17">
+      <c r="L37" s="17">
         <v>65400068</v>
       </c>
-      <c r="F37" s="17">
+      <c r="M37" s="17">
         <v>49067102</v>
       </c>
-      <c r="G37" s="17">
+      <c r="N37" s="17">
         <v>60302309</v>
       </c>
-      <c r="H37" s="17">
+      <c r="O37" s="17">
         <v>112287917</v>
       </c>
-      <c r="I37" s="17">
+      <c r="P37" s="17">
         <v>114500650</v>
       </c>
-      <c r="J37" s="17">
+      <c r="Q37" s="17">
         <v>114413152</v>
       </c>
-      <c r="K37" s="17">
+      <c r="R37" s="17">
         <v>115082940</v>
       </c>
-      <c r="L37" s="17">
+      <c r="S37" s="17">
         <v>101405962</v>
       </c>
-      <c r="M37" s="17">
+      <c r="T37" s="17">
         <v>144743521</v>
       </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U37" s="17">
+        <v>124686159</v>
+      </c>
+      <c r="V37" s="17">
+        <v>130610299</v>
+      </c>
+      <c r="W37" s="17">
+        <v>204098742</v>
+      </c>
+    </row>
+    <row r="38" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11">
@@ -1902,190 +2878,370 @@
       <c r="M38" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N38" s="11">
+        <v>0</v>
+      </c>
+      <c r="O38" s="11">
+        <v>0</v>
+      </c>
+      <c r="P38" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="11">
+        <v>0</v>
+      </c>
+      <c r="R38" s="11">
+        <v>0</v>
+      </c>
+      <c r="S38" s="11">
+        <v>0</v>
+      </c>
+      <c r="T38" s="11">
+        <v>0</v>
+      </c>
+      <c r="U38" s="11">
+        <v>0</v>
+      </c>
+      <c r="V38" s="11">
+        <v>0</v>
+      </c>
+      <c r="W38" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="C39" s="15"/>
-      <c r="D39" s="15" t="s">
-        <v>40</v>
+      <c r="D39" s="15">
+        <v>0</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F39" s="15" t="s">
-        <v>40</v>
+        <v>60</v>
+      </c>
+      <c r="F39" s="15">
+        <v>0</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="H39" s="15" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="I39" s="15" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="J39" s="15" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K39" s="15" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="L39" s="15" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="M39" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="N39" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="O39" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P39" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q39" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="R39" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S39" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="T39" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="U39" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="V39" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="W39" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11">
+        <v>82287</v>
+      </c>
+      <c r="E40" s="11">
+        <v>63751</v>
+      </c>
+      <c r="F40" s="11">
+        <v>76753</v>
+      </c>
+      <c r="G40" s="11">
+        <v>0</v>
+      </c>
+      <c r="H40" s="11">
+        <v>0</v>
+      </c>
+      <c r="I40" s="11">
+        <v>0</v>
+      </c>
+      <c r="J40" s="11">
+        <v>0</v>
+      </c>
+      <c r="K40" s="11">
         <v>4997425</v>
       </c>
-      <c r="E40" s="11">
+      <c r="L40" s="11">
         <v>4997425</v>
       </c>
-      <c r="F40" s="11">
+      <c r="M40" s="11">
         <v>4997424</v>
       </c>
-      <c r="G40" s="11">
+      <c r="N40" s="11">
         <v>4997424</v>
       </c>
-      <c r="H40" s="11">
+      <c r="O40" s="11">
         <v>4997424</v>
       </c>
-      <c r="I40" s="11">
+      <c r="P40" s="11">
         <v>4997424</v>
       </c>
-      <c r="J40" s="11">
-        <v>0</v>
-      </c>
-      <c r="K40" s="11">
-        <v>0</v>
-      </c>
-      <c r="L40" s="11">
-        <v>0</v>
-      </c>
-      <c r="M40" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="Q40" s="11">
+        <v>0</v>
+      </c>
+      <c r="R40" s="11">
+        <v>0</v>
+      </c>
+      <c r="S40" s="11">
+        <v>0</v>
+      </c>
+      <c r="T40" s="11">
+        <v>0</v>
+      </c>
+      <c r="U40" s="11">
+        <v>0</v>
+      </c>
+      <c r="V40" s="11">
+        <v>0</v>
+      </c>
+      <c r="W40" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
+        <v>650229</v>
+      </c>
+      <c r="E41" s="15">
+        <v>671945</v>
+      </c>
+      <c r="F41" s="15">
+        <v>706740</v>
+      </c>
+      <c r="G41" s="15">
+        <v>805295</v>
+      </c>
+      <c r="H41" s="15">
+        <v>883851</v>
+      </c>
+      <c r="I41" s="15">
+        <v>891733</v>
+      </c>
+      <c r="J41" s="15">
+        <v>964008</v>
+      </c>
+      <c r="K41" s="15">
         <v>1836570</v>
       </c>
-      <c r="E41" s="15">
+      <c r="L41" s="15">
         <v>1898184</v>
       </c>
-      <c r="F41" s="15">
+      <c r="M41" s="15">
         <v>2233483</v>
       </c>
-      <c r="G41" s="15">
+      <c r="N41" s="15">
         <v>2515520</v>
       </c>
-      <c r="H41" s="15">
+      <c r="O41" s="15">
         <v>3139972</v>
       </c>
-      <c r="I41" s="15">
+      <c r="P41" s="15">
         <v>3473352</v>
       </c>
-      <c r="J41" s="15">
+      <c r="Q41" s="15">
         <v>3401340</v>
       </c>
-      <c r="K41" s="15">
+      <c r="R41" s="15">
         <v>3760545</v>
       </c>
-      <c r="L41" s="15">
+      <c r="S41" s="15">
         <v>4219846</v>
       </c>
-      <c r="M41" s="15">
+      <c r="T41" s="15">
         <v>4622156</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U41" s="15">
+        <v>6056563</v>
+      </c>
+      <c r="V41" s="15">
+        <v>7869837</v>
+      </c>
+      <c r="W41" s="15">
+        <v>6379592</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B42" s="18" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="19">
+        <v>732516</v>
+      </c>
+      <c r="E42" s="19">
+        <v>735696</v>
+      </c>
+      <c r="F42" s="19">
+        <v>783493</v>
+      </c>
+      <c r="G42" s="19">
+        <v>805295</v>
+      </c>
+      <c r="H42" s="19">
+        <v>883851</v>
+      </c>
+      <c r="I42" s="19">
+        <v>891733</v>
+      </c>
+      <c r="J42" s="19">
+        <v>964008</v>
+      </c>
+      <c r="K42" s="19">
         <v>6833995</v>
       </c>
-      <c r="E42" s="19">
+      <c r="L42" s="19">
         <v>6895609</v>
       </c>
-      <c r="F42" s="19">
+      <c r="M42" s="19">
         <v>7230907</v>
       </c>
-      <c r="G42" s="19">
+      <c r="N42" s="19">
         <v>7512944</v>
       </c>
-      <c r="H42" s="19">
+      <c r="O42" s="19">
         <v>8137396</v>
       </c>
-      <c r="I42" s="19">
+      <c r="P42" s="19">
         <v>8470776</v>
       </c>
-      <c r="J42" s="19">
+      <c r="Q42" s="19">
         <v>3401340</v>
       </c>
-      <c r="K42" s="19">
+      <c r="R42" s="19">
         <v>3760545</v>
       </c>
-      <c r="L42" s="19">
+      <c r="S42" s="19">
         <v>4219846</v>
       </c>
-      <c r="M42" s="19">
+      <c r="T42" s="19">
         <v>4622156</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U42" s="19">
+        <v>6056563</v>
+      </c>
+      <c r="V42" s="19">
+        <v>7869837</v>
+      </c>
+      <c r="W42" s="19">
+        <v>6379592</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B43" s="16" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="C43" s="17"/>
       <c r="D43" s="17">
+        <v>29180387</v>
+      </c>
+      <c r="E43" s="17">
+        <v>28411861</v>
+      </c>
+      <c r="F43" s="17">
+        <v>33064192</v>
+      </c>
+      <c r="G43" s="17">
+        <v>50145259</v>
+      </c>
+      <c r="H43" s="17">
+        <v>49099407</v>
+      </c>
+      <c r="I43" s="17">
+        <v>38933987</v>
+      </c>
+      <c r="J43" s="17">
+        <v>41192689</v>
+      </c>
+      <c r="K43" s="17">
         <v>86825844</v>
       </c>
-      <c r="E43" s="17">
+      <c r="L43" s="17">
         <v>72295677</v>
       </c>
-      <c r="F43" s="17">
+      <c r="M43" s="17">
         <v>56298009</v>
       </c>
-      <c r="G43" s="17">
+      <c r="N43" s="17">
         <v>67815253</v>
       </c>
-      <c r="H43" s="17">
+      <c r="O43" s="17">
         <v>120425313</v>
       </c>
-      <c r="I43" s="17">
+      <c r="P43" s="17">
         <v>122971426</v>
       </c>
-      <c r="J43" s="17">
+      <c r="Q43" s="17">
         <v>117814492</v>
       </c>
-      <c r="K43" s="17">
+      <c r="R43" s="17">
         <v>118843485</v>
       </c>
-      <c r="L43" s="17">
+      <c r="S43" s="17">
         <v>105625808</v>
       </c>
-      <c r="M43" s="17">
+      <c r="T43" s="17">
         <v>149365677</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U43" s="17">
+        <v>130742722</v>
+      </c>
+      <c r="V43" s="17">
+        <v>138480136</v>
+      </c>
+      <c r="W43" s="17">
+        <v>210478334</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
@@ -2098,20 +3254,30 @@
       <c r="K44" s="13"/>
       <c r="L44" s="13"/>
       <c r="M44" s="13"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N44" s="13"/>
+      <c r="O44" s="13"/>
+      <c r="P44" s="13"/>
+      <c r="Q44" s="13"/>
+      <c r="R44" s="13"/>
+      <c r="S44" s="13"/>
+      <c r="T44" s="13"/>
+      <c r="U44" s="13"/>
+      <c r="V44" s="13"/>
+      <c r="W44" s="13"/>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15">
-        <v>13800000</v>
+        <v>9600000</v>
       </c>
       <c r="E45" s="15">
-        <v>13800000</v>
+        <v>9600000</v>
       </c>
       <c r="F45" s="15">
-        <v>13800000</v>
+        <v>9600000</v>
       </c>
       <c r="G45" s="15">
         <v>13800000</v>
@@ -2129,15 +3295,45 @@
         <v>13800000</v>
       </c>
       <c r="L45" s="15">
+        <v>13800000</v>
+      </c>
+      <c r="M45" s="15">
+        <v>13800000</v>
+      </c>
+      <c r="N45" s="15">
+        <v>13800000</v>
+      </c>
+      <c r="O45" s="15">
+        <v>13800000</v>
+      </c>
+      <c r="P45" s="15">
+        <v>13800000</v>
+      </c>
+      <c r="Q45" s="15">
+        <v>13800000</v>
+      </c>
+      <c r="R45" s="15">
+        <v>13800000</v>
+      </c>
+      <c r="S45" s="15">
         <v>18000000</v>
       </c>
-      <c r="M45" s="15">
+      <c r="T45" s="15">
         <v>18000000</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U45" s="15">
+        <v>18000000</v>
+      </c>
+      <c r="V45" s="15">
+        <v>18000000</v>
+      </c>
+      <c r="W45" s="15">
+        <v>18000000</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="11">
@@ -2170,46 +3366,106 @@
       <c r="M46" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N46" s="11">
+        <v>0</v>
+      </c>
+      <c r="O46" s="11">
+        <v>0</v>
+      </c>
+      <c r="P46" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="11">
+        <v>0</v>
+      </c>
+      <c r="R46" s="11">
+        <v>0</v>
+      </c>
+      <c r="S46" s="11">
+        <v>0</v>
+      </c>
+      <c r="T46" s="11">
+        <v>0</v>
+      </c>
+      <c r="U46" s="11">
+        <v>0</v>
+      </c>
+      <c r="V46" s="11">
+        <v>0</v>
+      </c>
+      <c r="W46" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15">
-        <v>0</v>
+        <v>4200000</v>
       </c>
       <c r="E47" s="15">
-        <v>0</v>
+        <v>4200000</v>
       </c>
       <c r="F47" s="15">
         <v>4200000</v>
       </c>
       <c r="G47" s="15">
+        <v>0</v>
+      </c>
+      <c r="H47" s="15">
+        <v>0</v>
+      </c>
+      <c r="I47" s="15">
+        <v>0</v>
+      </c>
+      <c r="J47" s="15">
+        <v>0</v>
+      </c>
+      <c r="K47" s="15">
+        <v>0</v>
+      </c>
+      <c r="L47" s="15">
+        <v>0</v>
+      </c>
+      <c r="M47" s="15">
         <v>4200000</v>
       </c>
-      <c r="H47" s="15">
+      <c r="N47" s="15">
         <v>4200000</v>
       </c>
-      <c r="I47" s="15">
+      <c r="O47" s="15">
         <v>4200000</v>
       </c>
-      <c r="J47" s="15">
+      <c r="P47" s="15">
         <v>4200000</v>
       </c>
-      <c r="K47" s="15">
+      <c r="Q47" s="15">
         <v>4200000</v>
       </c>
-      <c r="L47" s="15">
-        <v>0</v>
-      </c>
-      <c r="M47" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="R47" s="15">
+        <v>4200000</v>
+      </c>
+      <c r="S47" s="15">
+        <v>0</v>
+      </c>
+      <c r="T47" s="15">
+        <v>0</v>
+      </c>
+      <c r="U47" s="15">
+        <v>0</v>
+      </c>
+      <c r="V47" s="15">
+        <v>0</v>
+      </c>
+      <c r="W47" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="11">
@@ -2242,20 +3498,50 @@
       <c r="M48" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N48" s="11">
+        <v>0</v>
+      </c>
+      <c r="O48" s="11">
+        <v>0</v>
+      </c>
+      <c r="P48" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="11">
+        <v>0</v>
+      </c>
+      <c r="R48" s="11">
+        <v>0</v>
+      </c>
+      <c r="S48" s="11">
+        <v>0</v>
+      </c>
+      <c r="T48" s="11">
+        <v>0</v>
+      </c>
+      <c r="U48" s="11">
+        <v>0</v>
+      </c>
+      <c r="V48" s="11">
+        <v>0</v>
+      </c>
+      <c r="W48" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B49" s="14" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="C49" s="15"/>
-      <c r="D49" s="15">
-        <v>0</v>
+      <c r="D49" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="E49" s="15">
         <v>0</v>
       </c>
-      <c r="F49" s="15">
-        <v>0</v>
+      <c r="F49" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="G49" s="15">
         <v>0</v>
@@ -2278,26 +3564,56 @@
       <c r="M49" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N49" s="15">
+        <v>0</v>
+      </c>
+      <c r="O49" s="15">
+        <v>0</v>
+      </c>
+      <c r="P49" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="15">
+        <v>0</v>
+      </c>
+      <c r="R49" s="15">
+        <v>0</v>
+      </c>
+      <c r="S49" s="15">
+        <v>0</v>
+      </c>
+      <c r="T49" s="15">
+        <v>0</v>
+      </c>
+      <c r="U49" s="15">
+        <v>0</v>
+      </c>
+      <c r="V49" s="15">
+        <v>0</v>
+      </c>
+      <c r="W49" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11">
-        <v>1380000</v>
+        <v>960000</v>
       </c>
       <c r="E50" s="11">
-        <v>1380000</v>
+        <v>960000</v>
       </c>
       <c r="F50" s="11">
-        <v>1380000</v>
+        <v>960000</v>
       </c>
       <c r="G50" s="11">
-        <v>1380000</v>
+        <v>960000</v>
       </c>
       <c r="H50" s="11">
-        <v>1380000</v>
+        <v>960000</v>
       </c>
       <c r="I50" s="11">
         <v>1380000</v>
@@ -2314,10 +3630,40 @@
       <c r="M50" s="11">
         <v>1380000</v>
       </c>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N50" s="11">
+        <v>1380000</v>
+      </c>
+      <c r="O50" s="11">
+        <v>1380000</v>
+      </c>
+      <c r="P50" s="11">
+        <v>1380000</v>
+      </c>
+      <c r="Q50" s="11">
+        <v>1380000</v>
+      </c>
+      <c r="R50" s="11">
+        <v>1380000</v>
+      </c>
+      <c r="S50" s="11">
+        <v>1380000</v>
+      </c>
+      <c r="T50" s="11">
+        <v>1380000</v>
+      </c>
+      <c r="U50" s="11">
+        <v>1800000</v>
+      </c>
+      <c r="V50" s="11">
+        <v>1800000</v>
+      </c>
+      <c r="W50" s="11">
+        <v>1800000</v>
+      </c>
+    </row>
+    <row r="51" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B51" s="14" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="C51" s="15"/>
       <c r="D51" s="15">
@@ -2350,46 +3696,106 @@
       <c r="M51" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N51" s="15">
+        <v>0</v>
+      </c>
+      <c r="O51" s="15">
+        <v>0</v>
+      </c>
+      <c r="P51" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="15">
+        <v>0</v>
+      </c>
+      <c r="R51" s="15">
+        <v>0</v>
+      </c>
+      <c r="S51" s="15">
+        <v>0</v>
+      </c>
+      <c r="T51" s="15">
+        <v>0</v>
+      </c>
+      <c r="U51" s="15">
+        <v>0</v>
+      </c>
+      <c r="V51" s="15">
+        <v>0</v>
+      </c>
+      <c r="W51" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="C52" s="11"/>
-      <c r="D52" s="11" t="s">
-        <v>40</v>
+      <c r="D52" s="11">
+        <v>0</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F52" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
+      </c>
+      <c r="F52" s="11">
+        <v>0</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="J52" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K52" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="L52" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="M52" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="N52" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="O52" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P52" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q52" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="R52" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="S52" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="T52" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="U52" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="V52" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="W52" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15">
@@ -2422,46 +3828,106 @@
       <c r="M53" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N53" s="15">
+        <v>0</v>
+      </c>
+      <c r="O53" s="15">
+        <v>0</v>
+      </c>
+      <c r="P53" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="15">
+        <v>0</v>
+      </c>
+      <c r="R53" s="15">
+        <v>0</v>
+      </c>
+      <c r="S53" s="15">
+        <v>0</v>
+      </c>
+      <c r="T53" s="15">
+        <v>0</v>
+      </c>
+      <c r="U53" s="15">
+        <v>0</v>
+      </c>
+      <c r="V53" s="15">
+        <v>0</v>
+      </c>
+      <c r="W53" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="C54" s="11"/>
-      <c r="D54" s="11" t="s">
-        <v>40</v>
+      <c r="D54" s="11">
+        <v>0</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F54" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
+      </c>
+      <c r="F54" s="11">
+        <v>0</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="J54" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K54" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="L54" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="M54" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="N54" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="O54" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P54" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q54" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="R54" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="S54" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="T54" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="U54" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="V54" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="W54" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B55" s="14" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C55" s="15"/>
       <c r="D55" s="15">
@@ -2494,116 +3960,236 @@
       <c r="M55" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N55" s="15">
+        <v>0</v>
+      </c>
+      <c r="O55" s="15">
+        <v>0</v>
+      </c>
+      <c r="P55" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="15">
+        <v>0</v>
+      </c>
+      <c r="R55" s="15">
+        <v>0</v>
+      </c>
+      <c r="S55" s="15">
+        <v>0</v>
+      </c>
+      <c r="T55" s="15">
+        <v>0</v>
+      </c>
+      <c r="U55" s="15">
+        <v>0</v>
+      </c>
+      <c r="V55" s="15">
+        <v>0</v>
+      </c>
+      <c r="W55" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11">
+        <v>27430821</v>
+      </c>
+      <c r="E56" s="11">
+        <v>34859689</v>
+      </c>
+      <c r="F56" s="11">
+        <v>43538242</v>
+      </c>
+      <c r="G56" s="11">
+        <v>29619323</v>
+      </c>
+      <c r="H56" s="11">
+        <v>33037525</v>
+      </c>
+      <c r="I56" s="11">
+        <v>47816492</v>
+      </c>
+      <c r="J56" s="11">
+        <v>57617667</v>
+      </c>
+      <c r="K56" s="11">
         <v>40228204</v>
       </c>
-      <c r="E56" s="11">
+      <c r="L56" s="11">
         <v>64117882</v>
       </c>
-      <c r="F56" s="11">
+      <c r="M56" s="11">
         <v>115108840</v>
       </c>
-      <c r="G56" s="11">
+      <c r="N56" s="11">
         <v>136309165</v>
       </c>
-      <c r="H56" s="11">
+      <c r="O56" s="11">
         <v>70294741</v>
       </c>
-      <c r="I56" s="11">
+      <c r="P56" s="11">
         <v>87338982</v>
       </c>
-      <c r="J56" s="11">
+      <c r="Q56" s="11">
         <v>121715929</v>
       </c>
-      <c r="K56" s="11">
+      <c r="R56" s="11">
         <v>145850435</v>
       </c>
-      <c r="L56" s="11">
+      <c r="S56" s="11">
         <v>156849605</v>
       </c>
-      <c r="M56" s="11">
+      <c r="T56" s="11">
         <v>66126772</v>
       </c>
-    </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U56" s="11">
+        <v>114032631</v>
+      </c>
+      <c r="V56" s="11">
+        <v>137778033</v>
+      </c>
+      <c r="W56" s="11">
+        <v>57203461</v>
+      </c>
+    </row>
+    <row r="57" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B57" s="16" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="C57" s="17"/>
       <c r="D57" s="17">
+        <v>42190821</v>
+      </c>
+      <c r="E57" s="17">
+        <v>49619689</v>
+      </c>
+      <c r="F57" s="17">
+        <v>58298242</v>
+      </c>
+      <c r="G57" s="17">
+        <v>44379323</v>
+      </c>
+      <c r="H57" s="17">
+        <v>47797525</v>
+      </c>
+      <c r="I57" s="17">
+        <v>62996492</v>
+      </c>
+      <c r="J57" s="17">
+        <v>72797667</v>
+      </c>
+      <c r="K57" s="17">
         <v>55408204</v>
       </c>
-      <c r="E57" s="17">
+      <c r="L57" s="17">
         <v>79297882</v>
       </c>
-      <c r="F57" s="17">
+      <c r="M57" s="17">
         <v>134488840</v>
       </c>
-      <c r="G57" s="17">
+      <c r="N57" s="17">
         <v>155689165</v>
       </c>
-      <c r="H57" s="17">
+      <c r="O57" s="17">
         <v>89674741</v>
       </c>
-      <c r="I57" s="17">
+      <c r="P57" s="17">
         <v>106718982</v>
       </c>
-      <c r="J57" s="17">
+      <c r="Q57" s="17">
         <v>141095929</v>
       </c>
-      <c r="K57" s="17">
+      <c r="R57" s="17">
         <v>165230435</v>
       </c>
-      <c r="L57" s="17">
+      <c r="S57" s="17">
         <v>176229605</v>
       </c>
-      <c r="M57" s="17">
+      <c r="T57" s="17">
         <v>85506772</v>
       </c>
-    </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U57" s="17">
+        <v>133832631</v>
+      </c>
+      <c r="V57" s="17">
+        <v>157578033</v>
+      </c>
+      <c r="W57" s="17">
+        <v>77003461</v>
+      </c>
+    </row>
+    <row r="58" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B58" s="18" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="C58" s="19"/>
       <c r="D58" s="19">
+        <v>71371208</v>
+      </c>
+      <c r="E58" s="19">
+        <v>78031550</v>
+      </c>
+      <c r="F58" s="19">
+        <v>91362434</v>
+      </c>
+      <c r="G58" s="19">
+        <v>94524582</v>
+      </c>
+      <c r="H58" s="19">
+        <v>96896932</v>
+      </c>
+      <c r="I58" s="19">
+        <v>101930479</v>
+      </c>
+      <c r="J58" s="19">
+        <v>113990356</v>
+      </c>
+      <c r="K58" s="19">
         <v>142234048</v>
       </c>
-      <c r="E58" s="19">
+      <c r="L58" s="19">
         <v>151593559</v>
       </c>
-      <c r="F58" s="19">
+      <c r="M58" s="19">
         <v>190786849</v>
       </c>
-      <c r="G58" s="19">
+      <c r="N58" s="19">
         <v>223504418</v>
       </c>
-      <c r="H58" s="19">
+      <c r="O58" s="19">
         <v>210100054</v>
       </c>
-      <c r="I58" s="19">
+      <c r="P58" s="19">
         <v>229690408</v>
       </c>
-      <c r="J58" s="19">
+      <c r="Q58" s="19">
         <v>258910421</v>
       </c>
-      <c r="K58" s="19">
+      <c r="R58" s="19">
         <v>284073920</v>
       </c>
-      <c r="L58" s="19">
+      <c r="S58" s="19">
         <v>281855413</v>
       </c>
-      <c r="M58" s="19">
+      <c r="T58" s="19">
         <v>234872449</v>
       </c>
-    </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U58" s="19">
+        <v>264575353</v>
+      </c>
+      <c r="V58" s="19">
+        <v>296058169</v>
+      </c>
+      <c r="W58" s="19">
+        <v>287481795</v>
+      </c>
+    </row>
+    <row r="59" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2616,6 +4202,16 @@
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="1"/>
+      <c r="S59" s="1"/>
+      <c r="T59" s="1"/>
+      <c r="U59" s="1"/>
+      <c r="V59" s="1"/>
+      <c r="W59" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
